--- a/tool.xlsx
+++ b/tool.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\gameProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AD41689-AB7D-4B30-BBCA-488D953C7360}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B50D22A4-869E-4BB2-93CB-1DA66643243E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C1E23086-C598-4004-8092-219F7ADBA89B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
   <si>
     <r>
       <t>対話しているキャラクタ</t>
@@ -220,6 +220,16 @@
   </si>
   <si>
     <t>テスト</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重騎士</t>
+  </si>
+  <si>
+    <t>群兵</t>
+  </si>
+  <si>
+    <t>hj</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -713,10 +723,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DB7A27E-51FF-4F64-A630-838C2E2C9966}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -787,14 +797,26 @@
     </row>
     <row r="6" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>35</v>
       </c>
       <c r="C6" s="12">
         <f>VLOOKUP(台本!A6,名前リスト!$A$1:$C$13,2,FALSE)</f>
-        <v>1</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="12">
+        <f>VLOOKUP(台本!A7,名前リスト!$A$1:$C$13,2,FALSE)</f>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -821,7 +843,7 @@
   <dimension ref="A1:H1048576"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="A14" sqref="A14:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
